--- a/XlsxTemplateTests/data/value.xlsx
+++ b/XlsxTemplateTests/data/value.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\xlsx-template\XlsxTemplateTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6C7E0B-78A7-43C8-96C6-9AD6BD1EB665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BA73C6-73D4-4E9F-88A4-F884760024AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18300" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1298" yWindow="1335" windowWidth="20565" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性替换" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
-    <t>TemplateGO 测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,6 +261,10 @@
   </si>
   <si>
     <t>布尔 + 文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XlsxTemplate 测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1393,7 +1393,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1532,6 +1532,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1539,7 +1540,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2116,7 +2116,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{90470CA8-3C2B-4BA3-BF9F-6D6108E8EED2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2282,7 +2282,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306537" cy="6082018"/>
+    <xdr:ext cx="9291735" cy="6064898"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
@@ -2605,257 +2605,257 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="1" max="1" width="5.3984375" customWidth="1"/>
+    <col min="2" max="2" width="32.73046875" customWidth="1"/>
+    <col min="3" max="3" width="29.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <f t="shared" ref="A5:A11" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <f>ROW()-2</f>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f t="shared" ref="A12:A21" si="1">ROW()-2</f>
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2880,16 +2880,16 @@
       <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -2908,46 +2908,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="3">
         <v>44830</v>
@@ -2956,7 +2956,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1">
         <v>86</v>
@@ -2972,12 +2972,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3">
         <v>44830</v>
@@ -2986,7 +2986,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>88</v>
@@ -3002,12 +3002,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C4" s="3">
         <v>44830</v>
@@ -3016,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>90</v>
@@ -3032,12 +3032,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3">
         <v>44830</v>
@@ -3046,7 +3046,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1">
         <v>76</v>
@@ -3062,12 +3062,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3">
         <v>44830</v>
@@ -3076,7 +3076,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1">
         <v>85</v>
@@ -3092,12 +3092,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <v>44830</v>
@@ -3106,7 +3106,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>77</v>
